--- a/ref/temp.xlsx
+++ b/ref/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\200_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\393_May_cay.mp4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\199_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\407_May_cay.mp4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,17 +502,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\198_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\409_May_cay.mp4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -524,17 +524,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\197_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\410_May_cay.mp4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,17 +546,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>438</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\196_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\438_May_cay.mp4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -568,17 +568,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\195_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\447_May_cay.mp4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,17 +590,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\194_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\452_May_cay.mp4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,17 +612,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\193_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\453_May_cay.mp4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,17 +634,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\192_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\454_May_cay.mp4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,17 +656,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>457</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\191_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\457_May_cay.mp4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -678,17 +678,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\185_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\458_May_cay.mp4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -700,17 +700,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>459</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>61</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\184_Findtoys_ghep.mp4</t>
+          <t>D:\output_maycay\459_May_cay.mp4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,18 +722,264 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\460_May_cay.mp4</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\461_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\462_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\463_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\464_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>465</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\465_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\466_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\467_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\470_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\471_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>472</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\472_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>D:\output_maycay\473_May_cay.mp4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
     </row>

--- a/ref/temp.xlsx
+++ b/ref/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D:\output_maycay\393_May_cay.mp4</t>
+          <t>D:\output_findtoys\200_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -480,17 +480,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>407</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D:\output_maycay\407_May_cay.mp4</t>
+          <t>D:\output_findtoys\199_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -502,17 +502,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D:\output_maycay\409_May_cay.mp4</t>
+          <t>D:\output_findtoys\198_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -524,17 +524,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D:\output_maycay\410_May_cay.mp4</t>
+          <t>D:\output_findtoys\197_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -546,17 +546,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>438</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D:\output_maycay\438_May_cay.mp4</t>
+          <t>D:\output_findtoys\196_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -568,17 +568,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D:\output_maycay\447_May_cay.mp4</t>
+          <t>D:\output_findtoys\195_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -590,17 +590,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D:\output_maycay\452_May_cay.mp4</t>
+          <t>D:\output_findtoys\194_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,17 +612,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D:\output_maycay\453_May_cay.mp4</t>
+          <t>D:\output_findtoys\193_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -634,17 +634,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D:\output_maycay\454_May_cay.mp4</t>
+          <t>D:\output_findtoys\192_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -656,17 +656,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>D:\output_maycay\457_May_cay.mp4</t>
+          <t>D:\output_findtoys\191_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -678,17 +678,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D:\output_maycay\458_May_cay.mp4</t>
+          <t>D:\output_findtoys\185_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -700,17 +700,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D:\output_maycay\459_May_cay.mp4</t>
+          <t>D:\output_findtoys\184_Findtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -722,17 +722,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D:\output_maycay\460_May_cay.mp4</t>
+          <t>\\n8n\D\output_bluey_funtoys\183_Bluey_funtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -744,17 +744,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D:\output_maycay\461_May_cay.mp4</t>
+          <t>E:\ghep_\bluey_funtoys\184_Bluey_funtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -766,39 +766,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>182</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>D:\output_maycay\462_May_cay.mp4</t>
-        </is>
-      </c>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Done</t>
+          <t>Auto</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>D:\output_maycay\463_May_cay.mp4</t>
+          <t>E:\ghep_\bluey_funtoys\181_Bluey_funtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -810,174 +806,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D:\output_maycay\464_May_cay.mp4</t>
+          <t>E:\ghep_\bluey_funtoys\180_Bluey_funtoys_ghep.mp4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>465</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>D:\output_maycay\465_May_cay.mp4</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>466</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>D:\output_maycay\466_May_cay.mp4</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>467</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>D:\output_maycay\467_May_cay.mp4</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>470</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>D:\output_maycay\470_May_cay.mp4</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>471</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>D:\output_maycay\471_May_cay.mp4</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>472</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>D:\output_maycay\472_May_cay.mp4</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>D:\output_maycay\473_May_cay.mp4</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
         <is>
           <t>Done</t>
         </is>

--- a/ref/temp.xlsx
+++ b/ref/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,98 +730,10 @@
           <t>30</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>\\n8n\D\output_bluey_funtoys\183_Bluey_funtoys_ghep.mp4</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>E:\ghep_\bluey_funtoys\184_Bluey_funtoys_ghep.mp4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>182</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>Auto</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>E:\ghep_\bluey_funtoys\181_Bluey_funtoys_ghep.mp4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Done</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>E:\ghep_\bluey_funtoys\180_Bluey_funtoys_ghep.mp4</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Done</t>
         </is>
       </c>
     </row>

--- a/ref/temp.xlsx
+++ b/ref/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,19 +456,15 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="A2" t="n">
+        <v>313</v>
+      </c>
+      <c r="B2" t="n">
+        <v>61</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\200_Findtoys_ghep.mp4</t>
+          <t>D:\output_beca\313_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -478,19 +474,15 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>199</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="A3" t="n">
+        <v>314</v>
+      </c>
+      <c r="B3" t="n">
+        <v>61</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\199_Findtoys_ghep.mp4</t>
+          <t>D:\output_beca\314_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -500,19 +492,15 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="A4" t="n">
+        <v>316</v>
+      </c>
+      <c r="B4" t="n">
+        <v>61</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\198_Findtoys_ghep.mp4</t>
+          <t>D:\output_bluey\316_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -522,19 +510,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="A5" t="n">
+        <v>317</v>
+      </c>
+      <c r="B5" t="n">
+        <v>61</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\197_Findtoys_ghep.mp4</t>
+          <t>D:\output_bluey\317_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -544,19 +528,15 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>196</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="A6" t="n">
+        <v>315</v>
+      </c>
+      <c r="B6" t="n">
+        <v>61</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\196_Findtoys_ghep.mp4</t>
+          <t>D:\output_bluey\315_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -566,19 +546,15 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="A7" t="n">
+        <v>322</v>
+      </c>
+      <c r="B7" t="n">
+        <v>61</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\195_Findtoys_ghep.mp4</t>
+          <t>D:\output_bluey\322_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -588,19 +564,15 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="A8" t="n">
+        <v>318</v>
+      </c>
+      <c r="B8" t="n">
+        <v>61</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\194_Findtoys_ghep.mp4</t>
+          <t>D:\output_bluey\318_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -610,19 +582,15 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="A9" t="n">
+        <v>319</v>
+      </c>
+      <c r="B9" t="n">
+        <v>61</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\193_Findtoys_ghep.mp4</t>
+          <t>D:\output_bluey\319_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -632,19 +600,15 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
+      <c r="A10" t="n">
+        <v>321</v>
+      </c>
+      <c r="B10" t="n">
+        <v>61</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\192_Findtoys_ghep.mp4</t>
+          <t>D:\output_bluey\321_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -654,21 +618,13 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>D:\output_findtoys\191_Findtoys_ghep.mp4</t>
-        </is>
-      </c>
+      <c r="A11" t="n">
+        <v>320</v>
+      </c>
+      <c r="B11" t="n">
+        <v>61</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>Done</t>
@@ -676,19 +632,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="A12" t="n">
+        <v>320</v>
+      </c>
+      <c r="B12" t="n">
+        <v>61</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\185_Findtoys_ghep.mp4</t>
+          <t>D:\output_bluey\320_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -698,19 +650,15 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+      <c r="A13" t="n">
+        <v>324</v>
+      </c>
+      <c r="B13" t="n">
+        <v>61</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>D:\output_findtoys\184_Findtoys_ghep.mp4</t>
+          <t>D:\output_bluey\324_Bluey_ghep.mp4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -720,20 +668,394 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="A14" t="n">
+        <v>323</v>
+      </c>
+      <c r="B14" t="n">
+        <v>61</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>D:\output_bluey\323_Bluey_ghep.mp4</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Auto</t>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>325</v>
+      </c>
+      <c r="B15" t="n">
+        <v>61</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>D:\output_bluey\325_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>327</v>
+      </c>
+      <c r="B16" t="n">
+        <v>61</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>D:\output_bluey\327_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>326</v>
+      </c>
+      <c r="B17" t="n">
+        <v>61</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>D:\output_bluey\326_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>328</v>
+      </c>
+      <c r="B18" t="n">
+        <v>61</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>D:\output_bluey\328_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>329</v>
+      </c>
+      <c r="B19" t="n">
+        <v>61</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>D:\output_bluey\329_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>332</v>
+      </c>
+      <c r="B20" t="n">
+        <v>61</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>D:\output_bluey\332_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>331</v>
+      </c>
+      <c r="B21" t="n">
+        <v>61</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>D:\output_bluey\331_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>320</v>
+      </c>
+      <c r="B22" t="n">
+        <v>61</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>\\n8n\D\output_bluey\320_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>331</v>
+      </c>
+      <c r="B23" t="n">
+        <v>61</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>\\n8n\D\output_bluey\331_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>332</v>
+      </c>
+      <c r="B24" t="n">
+        <v>61</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>\\n8n\D\output_bluey\332_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>329</v>
+      </c>
+      <c r="B25" t="n">
+        <v>61</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>\\n8n\D\output_bluey\329_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>334</v>
+      </c>
+      <c r="B26" t="n">
+        <v>61</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>\\n8n\D\output_bluey\334_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>335</v>
+      </c>
+      <c r="B27" t="n">
+        <v>61</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>\\n8n\D\output_bluey\335_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>312</v>
+      </c>
+      <c r="B28" t="n">
+        <v>15</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>E:\ghep_\bluey\312_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>311</v>
+      </c>
+      <c r="B29" t="n">
+        <v>15</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>E:\ghep_\bluey\311_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>310</v>
+      </c>
+      <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>E:\ghep_\bluey\310_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>309</v>
+      </c>
+      <c r="B31" t="n">
+        <v>15</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>308</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>E:\ghep_\bluey\308_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>307</v>
+      </c>
+      <c r="B33" t="n">
+        <v>15</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>E:\ghep_\bluey\307_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>306</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>E:\ghep_\bluey\306_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Done</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>305</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>E:\ghep_\bluey\305_Bluey_ghep.mp4</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Done</t>
         </is>
       </c>
     </row>
